--- a/AccPoint/src/TemplateReport/template_excel.xlsx
+++ b/AccPoint/src/TemplateReport/template_excel.xlsx
@@ -3,18 +3,14 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="153222"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\antonio.dicivita\Desktop\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="9735"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22890" windowHeight="8040"/>
   </bookViews>
   <sheets>
     <sheet name="Foglio1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="152511"/>
+  <oleSize ref="A1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -24,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="19">
   <si>
     <t>Cliente:</t>
   </si>
@@ -92,9 +88,6 @@
   </si>
   <si>
     <t>Operatore:</t>
-  </si>
-  <si>
-    <t>Sig. Luca Soave</t>
   </si>
 </sst>
 </file>
@@ -500,6 +493,171 @@
       <alignment horizontal="center"/>
       <protection locked="0"/>
     </xf>
+    <xf numFmtId="165" fontId="6" fillId="0" borderId="12" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="19" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="14" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="16" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="20" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="21" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="13" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="14" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="15" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="16" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="17" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="164" fontId="10" fillId="2" borderId="18" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="17" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="18" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="18" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="1" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="1" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="17" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="18" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
       <protection locked="0"/>
@@ -558,171 +716,6 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="1" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="1" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="13" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="14" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="15" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="16" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="17" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="18" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="18" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="17" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="17" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="18" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="164" fontId="10" fillId="2" borderId="18" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="19" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="14" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="16" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="20" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="21" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="165" fontId="6" fillId="0" borderId="12" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
       <protection locked="0"/>
     </xf>
   </cellXfs>
@@ -1507,8 +1500,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:U63"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A35" workbookViewId="0">
-      <selection activeCell="T47" sqref="T47"/>
+    <sheetView tabSelected="1" topLeftCell="A50" workbookViewId="0">
+      <selection activeCell="L65" sqref="L65"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1648,727 +1641,727 @@
     <row r="6" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="1"/>
       <c r="B6" s="2"/>
-      <c r="C6" s="14"/>
-      <c r="D6" s="14"/>
-      <c r="E6" s="14"/>
-      <c r="F6" s="14"/>
-      <c r="G6" s="14"/>
-      <c r="H6" s="14"/>
-      <c r="I6" s="14"/>
-      <c r="J6" s="14"/>
-      <c r="K6" s="14"/>
-      <c r="L6" s="14"/>
-      <c r="M6" s="14"/>
-      <c r="N6" s="14"/>
-      <c r="O6" s="14"/>
-      <c r="P6" s="14"/>
-      <c r="Q6" s="14"/>
-      <c r="R6" s="14"/>
-      <c r="S6" s="14"/>
-      <c r="T6" s="14"/>
-      <c r="U6" s="14"/>
+      <c r="C6" s="62"/>
+      <c r="D6" s="62"/>
+      <c r="E6" s="62"/>
+      <c r="F6" s="62"/>
+      <c r="G6" s="62"/>
+      <c r="H6" s="62"/>
+      <c r="I6" s="62"/>
+      <c r="J6" s="62"/>
+      <c r="K6" s="62"/>
+      <c r="L6" s="62"/>
+      <c r="M6" s="62"/>
+      <c r="N6" s="62"/>
+      <c r="O6" s="62"/>
+      <c r="P6" s="62"/>
+      <c r="Q6" s="62"/>
+      <c r="R6" s="62"/>
+      <c r="S6" s="62"/>
+      <c r="T6" s="62"/>
+      <c r="U6" s="62"/>
     </row>
     <row r="7" spans="1:21" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A7" s="1"/>
       <c r="B7" s="2"/>
-      <c r="C7" s="15" t="s">
+      <c r="C7" s="63" t="s">
         <v>0</v>
       </c>
-      <c r="D7" s="15"/>
-      <c r="E7" s="15"/>
-      <c r="F7" s="17"/>
-      <c r="G7" s="17"/>
-      <c r="H7" s="17"/>
-      <c r="I7" s="17"/>
-      <c r="J7" s="17"/>
-      <c r="K7" s="17"/>
-      <c r="L7" s="18"/>
-      <c r="M7" s="21" t="s">
+      <c r="D7" s="63"/>
+      <c r="E7" s="63"/>
+      <c r="F7" s="65"/>
+      <c r="G7" s="65"/>
+      <c r="H7" s="65"/>
+      <c r="I7" s="65"/>
+      <c r="J7" s="65"/>
+      <c r="K7" s="65"/>
+      <c r="L7" s="66"/>
+      <c r="M7" s="69" t="s">
         <v>1</v>
       </c>
-      <c r="N7" s="22"/>
-      <c r="O7" s="22"/>
-      <c r="P7" s="22"/>
-      <c r="Q7" s="25" t="s">
+      <c r="N7" s="70"/>
+      <c r="O7" s="70"/>
+      <c r="P7" s="70"/>
+      <c r="Q7" s="73" t="s">
         <v>2</v>
       </c>
-      <c r="R7" s="25"/>
-      <c r="S7" s="27" t="s">
+      <c r="R7" s="73"/>
+      <c r="S7" s="75" t="s">
         <v>3</v>
       </c>
-      <c r="T7" s="27"/>
-      <c r="U7" s="27"/>
+      <c r="T7" s="75"/>
+      <c r="U7" s="75"/>
     </row>
     <row r="8" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="1"/>
       <c r="B8" s="2"/>
-      <c r="C8" s="16"/>
-      <c r="D8" s="16"/>
-      <c r="E8" s="16"/>
-      <c r="F8" s="19"/>
-      <c r="G8" s="19"/>
-      <c r="H8" s="19"/>
-      <c r="I8" s="19"/>
-      <c r="J8" s="19"/>
-      <c r="K8" s="19"/>
-      <c r="L8" s="20"/>
-      <c r="M8" s="23"/>
-      <c r="N8" s="24"/>
-      <c r="O8" s="24"/>
-      <c r="P8" s="24"/>
-      <c r="Q8" s="26"/>
-      <c r="R8" s="26"/>
-      <c r="S8" s="28"/>
-      <c r="T8" s="28"/>
-      <c r="U8" s="28"/>
+      <c r="C8" s="64"/>
+      <c r="D8" s="64"/>
+      <c r="E8" s="64"/>
+      <c r="F8" s="67"/>
+      <c r="G8" s="67"/>
+      <c r="H8" s="67"/>
+      <c r="I8" s="67"/>
+      <c r="J8" s="67"/>
+      <c r="K8" s="67"/>
+      <c r="L8" s="68"/>
+      <c r="M8" s="71"/>
+      <c r="N8" s="72"/>
+      <c r="O8" s="72"/>
+      <c r="P8" s="72"/>
+      <c r="Q8" s="74"/>
+      <c r="R8" s="74"/>
+      <c r="S8" s="76"/>
+      <c r="T8" s="76"/>
+      <c r="U8" s="76"/>
     </row>
     <row r="9" spans="1:21" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="1"/>
       <c r="B9" s="2"/>
-      <c r="C9" s="29"/>
-      <c r="D9" s="30"/>
-      <c r="E9" s="30"/>
-      <c r="F9" s="30"/>
-      <c r="G9" s="30"/>
-      <c r="H9" s="30"/>
-      <c r="I9" s="30"/>
-      <c r="J9" s="30"/>
-      <c r="K9" s="30"/>
-      <c r="L9" s="30"/>
-      <c r="M9" s="30"/>
-      <c r="N9" s="30"/>
-      <c r="O9" s="30"/>
-      <c r="P9" s="30"/>
-      <c r="Q9" s="30"/>
-      <c r="R9" s="30"/>
-      <c r="S9" s="30"/>
-      <c r="T9" s="30"/>
-      <c r="U9" s="30"/>
+      <c r="C9" s="50"/>
+      <c r="D9" s="51"/>
+      <c r="E9" s="51"/>
+      <c r="F9" s="51"/>
+      <c r="G9" s="51"/>
+      <c r="H9" s="51"/>
+      <c r="I9" s="51"/>
+      <c r="J9" s="51"/>
+      <c r="K9" s="51"/>
+      <c r="L9" s="51"/>
+      <c r="M9" s="51"/>
+      <c r="N9" s="51"/>
+      <c r="O9" s="51"/>
+      <c r="P9" s="51"/>
+      <c r="Q9" s="51"/>
+      <c r="R9" s="51"/>
+      <c r="S9" s="51"/>
+      <c r="T9" s="51"/>
+      <c r="U9" s="51"/>
     </row>
     <row r="10" spans="1:21" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A10" s="1"/>
       <c r="B10" s="2"/>
-      <c r="C10" s="31" t="s">
+      <c r="C10" s="52" t="s">
         <v>4</v>
       </c>
-      <c r="D10" s="31"/>
-      <c r="E10" s="31"/>
-      <c r="F10" s="31"/>
-      <c r="G10" s="31"/>
-      <c r="H10" s="31"/>
-      <c r="I10" s="31"/>
-      <c r="J10" s="31"/>
-      <c r="K10" s="31"/>
-      <c r="L10" s="31"/>
-      <c r="M10" s="31"/>
-      <c r="N10" s="31"/>
-      <c r="O10" s="31"/>
-      <c r="P10" s="31"/>
-      <c r="Q10" s="31"/>
-      <c r="R10" s="31"/>
-      <c r="S10" s="31"/>
-      <c r="T10" s="31"/>
-      <c r="U10" s="31"/>
+      <c r="D10" s="52"/>
+      <c r="E10" s="52"/>
+      <c r="F10" s="52"/>
+      <c r="G10" s="52"/>
+      <c r="H10" s="52"/>
+      <c r="I10" s="52"/>
+      <c r="J10" s="52"/>
+      <c r="K10" s="52"/>
+      <c r="L10" s="52"/>
+      <c r="M10" s="52"/>
+      <c r="N10" s="52"/>
+      <c r="O10" s="52"/>
+      <c r="P10" s="52"/>
+      <c r="Q10" s="52"/>
+      <c r="R10" s="52"/>
+      <c r="S10" s="52"/>
+      <c r="T10" s="52"/>
+      <c r="U10" s="52"/>
     </row>
     <row r="11" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" s="1"/>
       <c r="B11" s="2"/>
-      <c r="C11" s="32"/>
-      <c r="D11" s="32"/>
-      <c r="E11" s="32"/>
-      <c r="F11" s="32"/>
-      <c r="G11" s="32"/>
-      <c r="H11" s="32"/>
-      <c r="I11" s="32"/>
-      <c r="J11" s="32"/>
-      <c r="K11" s="32"/>
-      <c r="L11" s="32"/>
-      <c r="M11" s="32"/>
-      <c r="N11" s="32"/>
-      <c r="O11" s="32"/>
-      <c r="P11" s="32"/>
-      <c r="Q11" s="32"/>
-      <c r="R11" s="32"/>
-      <c r="S11" s="32"/>
-      <c r="T11" s="32"/>
-      <c r="U11" s="32"/>
+      <c r="C11" s="53"/>
+      <c r="D11" s="53"/>
+      <c r="E11" s="53"/>
+      <c r="F11" s="53"/>
+      <c r="G11" s="53"/>
+      <c r="H11" s="53"/>
+      <c r="I11" s="53"/>
+      <c r="J11" s="53"/>
+      <c r="K11" s="53"/>
+      <c r="L11" s="53"/>
+      <c r="M11" s="53"/>
+      <c r="N11" s="53"/>
+      <c r="O11" s="53"/>
+      <c r="P11" s="53"/>
+      <c r="Q11" s="53"/>
+      <c r="R11" s="53"/>
+      <c r="S11" s="53"/>
+      <c r="T11" s="53"/>
+      <c r="U11" s="53"/>
     </row>
     <row r="12" spans="1:21" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A12" s="1"/>
       <c r="B12" s="2"/>
-      <c r="C12" s="33"/>
-      <c r="D12" s="33"/>
-      <c r="E12" s="33"/>
-      <c r="F12" s="33"/>
-      <c r="G12" s="33"/>
-      <c r="H12" s="33"/>
-      <c r="I12" s="33"/>
-      <c r="J12" s="33"/>
-      <c r="K12" s="33"/>
-      <c r="L12" s="33"/>
-      <c r="M12" s="33"/>
-      <c r="N12" s="33"/>
-      <c r="O12" s="33"/>
-      <c r="P12" s="33"/>
-      <c r="Q12" s="33"/>
-      <c r="R12" s="33"/>
-      <c r="S12" s="33"/>
-      <c r="T12" s="33"/>
-      <c r="U12" s="33"/>
+      <c r="C12" s="54"/>
+      <c r="D12" s="54"/>
+      <c r="E12" s="54"/>
+      <c r="F12" s="54"/>
+      <c r="G12" s="54"/>
+      <c r="H12" s="54"/>
+      <c r="I12" s="54"/>
+      <c r="J12" s="54"/>
+      <c r="K12" s="54"/>
+      <c r="L12" s="54"/>
+      <c r="M12" s="54"/>
+      <c r="N12" s="54"/>
+      <c r="O12" s="54"/>
+      <c r="P12" s="54"/>
+      <c r="Q12" s="54"/>
+      <c r="R12" s="54"/>
+      <c r="S12" s="54"/>
+      <c r="T12" s="54"/>
+      <c r="U12" s="54"/>
     </row>
     <row r="13" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A13" s="1"/>
       <c r="B13" s="2"/>
-      <c r="C13" s="34"/>
-      <c r="D13" s="34"/>
-      <c r="E13" s="34"/>
-      <c r="F13" s="34"/>
-      <c r="G13" s="34"/>
-      <c r="H13" s="34"/>
-      <c r="I13" s="34"/>
-      <c r="J13" s="34"/>
-      <c r="K13" s="34"/>
-      <c r="L13" s="34"/>
-      <c r="M13" s="34"/>
-      <c r="N13" s="34"/>
-      <c r="O13" s="34"/>
-      <c r="P13" s="34"/>
-      <c r="Q13" s="34"/>
-      <c r="R13" s="34"/>
-      <c r="S13" s="34"/>
-      <c r="T13" s="34"/>
-      <c r="U13" s="34"/>
+      <c r="C13" s="55"/>
+      <c r="D13" s="55"/>
+      <c r="E13" s="55"/>
+      <c r="F13" s="55"/>
+      <c r="G13" s="55"/>
+      <c r="H13" s="55"/>
+      <c r="I13" s="55"/>
+      <c r="J13" s="55"/>
+      <c r="K13" s="55"/>
+      <c r="L13" s="55"/>
+      <c r="M13" s="55"/>
+      <c r="N13" s="55"/>
+      <c r="O13" s="55"/>
+      <c r="P13" s="55"/>
+      <c r="Q13" s="55"/>
+      <c r="R13" s="55"/>
+      <c r="S13" s="55"/>
+      <c r="T13" s="55"/>
+      <c r="U13" s="55"/>
     </row>
     <row r="14" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A14" s="1"/>
       <c r="B14" s="2"/>
-      <c r="C14" s="34"/>
-      <c r="D14" s="36" t="s">
+      <c r="C14" s="55"/>
+      <c r="D14" s="32" t="s">
         <v>5</v>
       </c>
-      <c r="E14" s="37"/>
-      <c r="F14" s="37"/>
-      <c r="G14" s="37"/>
-      <c r="H14" s="37"/>
-      <c r="I14" s="38"/>
-      <c r="J14" s="42"/>
-      <c r="K14" s="43"/>
-      <c r="L14" s="44"/>
-      <c r="M14" s="44"/>
-      <c r="N14" s="44"/>
-      <c r="O14" s="44"/>
-      <c r="P14" s="44"/>
-      <c r="Q14" s="44"/>
-      <c r="R14" s="44"/>
-      <c r="S14" s="44"/>
-      <c r="T14" s="45"/>
-      <c r="U14" s="49"/>
+      <c r="E14" s="33"/>
+      <c r="F14" s="33"/>
+      <c r="G14" s="33"/>
+      <c r="H14" s="33"/>
+      <c r="I14" s="34"/>
+      <c r="J14" s="57"/>
+      <c r="K14" s="38"/>
+      <c r="L14" s="39"/>
+      <c r="M14" s="39"/>
+      <c r="N14" s="39"/>
+      <c r="O14" s="39"/>
+      <c r="P14" s="39"/>
+      <c r="Q14" s="39"/>
+      <c r="R14" s="39"/>
+      <c r="S14" s="39"/>
+      <c r="T14" s="40"/>
+      <c r="U14" s="58"/>
     </row>
     <row r="15" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A15" s="1"/>
       <c r="B15" s="2"/>
-      <c r="C15" s="34"/>
-      <c r="D15" s="39"/>
-      <c r="E15" s="40"/>
-      <c r="F15" s="40"/>
-      <c r="G15" s="40"/>
-      <c r="H15" s="40"/>
-      <c r="I15" s="41"/>
-      <c r="J15" s="42"/>
-      <c r="K15" s="46"/>
-      <c r="L15" s="47"/>
-      <c r="M15" s="47"/>
-      <c r="N15" s="47"/>
-      <c r="O15" s="47"/>
-      <c r="P15" s="47"/>
-      <c r="Q15" s="47"/>
-      <c r="R15" s="47"/>
-      <c r="S15" s="47"/>
-      <c r="T15" s="48"/>
-      <c r="U15" s="49"/>
+      <c r="C15" s="55"/>
+      <c r="D15" s="35"/>
+      <c r="E15" s="36"/>
+      <c r="F15" s="36"/>
+      <c r="G15" s="36"/>
+      <c r="H15" s="36"/>
+      <c r="I15" s="37"/>
+      <c r="J15" s="57"/>
+      <c r="K15" s="41"/>
+      <c r="L15" s="42"/>
+      <c r="M15" s="42"/>
+      <c r="N15" s="42"/>
+      <c r="O15" s="42"/>
+      <c r="P15" s="42"/>
+      <c r="Q15" s="42"/>
+      <c r="R15" s="42"/>
+      <c r="S15" s="42"/>
+      <c r="T15" s="43"/>
+      <c r="U15" s="58"/>
     </row>
     <row r="16" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A16" s="1"/>
       <c r="B16" s="2"/>
-      <c r="C16" s="34"/>
-      <c r="D16" s="51"/>
-      <c r="E16" s="51"/>
-      <c r="F16" s="51"/>
-      <c r="G16" s="51"/>
-      <c r="H16" s="51"/>
-      <c r="I16" s="51"/>
-      <c r="J16" s="42"/>
-      <c r="K16" s="52"/>
-      <c r="L16" s="52"/>
-      <c r="M16" s="52"/>
-      <c r="N16" s="52"/>
-      <c r="O16" s="52"/>
-      <c r="P16" s="52"/>
-      <c r="Q16" s="52"/>
-      <c r="R16" s="52"/>
-      <c r="S16" s="52"/>
-      <c r="T16" s="52"/>
-      <c r="U16" s="49"/>
+      <c r="C16" s="55"/>
+      <c r="D16" s="60"/>
+      <c r="E16" s="60"/>
+      <c r="F16" s="60"/>
+      <c r="G16" s="60"/>
+      <c r="H16" s="60"/>
+      <c r="I16" s="60"/>
+      <c r="J16" s="57"/>
+      <c r="K16" s="47"/>
+      <c r="L16" s="47"/>
+      <c r="M16" s="47"/>
+      <c r="N16" s="47"/>
+      <c r="O16" s="47"/>
+      <c r="P16" s="47"/>
+      <c r="Q16" s="47"/>
+      <c r="R16" s="47"/>
+      <c r="S16" s="47"/>
+      <c r="T16" s="47"/>
+      <c r="U16" s="58"/>
     </row>
     <row r="17" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A17" s="1"/>
       <c r="B17" s="2"/>
-      <c r="C17" s="34"/>
-      <c r="D17" s="36" t="s">
+      <c r="C17" s="55"/>
+      <c r="D17" s="32" t="s">
         <v>6</v>
       </c>
-      <c r="E17" s="37"/>
-      <c r="F17" s="37"/>
-      <c r="G17" s="37"/>
-      <c r="H17" s="37"/>
-      <c r="I17" s="38"/>
-      <c r="J17" s="42"/>
-      <c r="K17" s="43"/>
-      <c r="L17" s="44"/>
-      <c r="M17" s="44"/>
-      <c r="N17" s="44"/>
-      <c r="O17" s="44"/>
-      <c r="P17" s="44"/>
-      <c r="Q17" s="44"/>
-      <c r="R17" s="44"/>
-      <c r="S17" s="44"/>
-      <c r="T17" s="45"/>
-      <c r="U17" s="49"/>
+      <c r="E17" s="33"/>
+      <c r="F17" s="33"/>
+      <c r="G17" s="33"/>
+      <c r="H17" s="33"/>
+      <c r="I17" s="34"/>
+      <c r="J17" s="57"/>
+      <c r="K17" s="38"/>
+      <c r="L17" s="39"/>
+      <c r="M17" s="39"/>
+      <c r="N17" s="39"/>
+      <c r="O17" s="39"/>
+      <c r="P17" s="39"/>
+      <c r="Q17" s="39"/>
+      <c r="R17" s="39"/>
+      <c r="S17" s="39"/>
+      <c r="T17" s="40"/>
+      <c r="U17" s="58"/>
     </row>
     <row r="18" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A18" s="1"/>
       <c r="B18" s="2"/>
-      <c r="C18" s="34"/>
-      <c r="D18" s="39"/>
-      <c r="E18" s="40"/>
-      <c r="F18" s="40"/>
-      <c r="G18" s="40"/>
-      <c r="H18" s="40"/>
-      <c r="I18" s="41"/>
-      <c r="J18" s="42"/>
-      <c r="K18" s="46"/>
-      <c r="L18" s="47"/>
-      <c r="M18" s="47"/>
-      <c r="N18" s="47"/>
-      <c r="O18" s="47"/>
-      <c r="P18" s="47"/>
-      <c r="Q18" s="47"/>
-      <c r="R18" s="47"/>
-      <c r="S18" s="47"/>
-      <c r="T18" s="48"/>
-      <c r="U18" s="49"/>
+      <c r="C18" s="55"/>
+      <c r="D18" s="35"/>
+      <c r="E18" s="36"/>
+      <c r="F18" s="36"/>
+      <c r="G18" s="36"/>
+      <c r="H18" s="36"/>
+      <c r="I18" s="37"/>
+      <c r="J18" s="57"/>
+      <c r="K18" s="41"/>
+      <c r="L18" s="42"/>
+      <c r="M18" s="42"/>
+      <c r="N18" s="42"/>
+      <c r="O18" s="42"/>
+      <c r="P18" s="42"/>
+      <c r="Q18" s="42"/>
+      <c r="R18" s="42"/>
+      <c r="S18" s="42"/>
+      <c r="T18" s="43"/>
+      <c r="U18" s="58"/>
     </row>
     <row r="19" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A19" s="1"/>
       <c r="B19" s="2"/>
-      <c r="C19" s="34"/>
-      <c r="D19" s="51"/>
-      <c r="E19" s="51"/>
-      <c r="F19" s="51"/>
-      <c r="G19" s="51"/>
-      <c r="H19" s="51"/>
-      <c r="I19" s="51"/>
-      <c r="J19" s="42"/>
-      <c r="K19" s="53"/>
-      <c r="L19" s="53"/>
-      <c r="M19" s="53"/>
-      <c r="N19" s="53"/>
-      <c r="O19" s="53"/>
-      <c r="P19" s="53"/>
-      <c r="Q19" s="53"/>
-      <c r="R19" s="53"/>
-      <c r="S19" s="53"/>
-      <c r="T19" s="53"/>
-      <c r="U19" s="49"/>
+      <c r="C19" s="55"/>
+      <c r="D19" s="60"/>
+      <c r="E19" s="60"/>
+      <c r="F19" s="60"/>
+      <c r="G19" s="60"/>
+      <c r="H19" s="60"/>
+      <c r="I19" s="60"/>
+      <c r="J19" s="57"/>
+      <c r="K19" s="61"/>
+      <c r="L19" s="61"/>
+      <c r="M19" s="61"/>
+      <c r="N19" s="61"/>
+      <c r="O19" s="61"/>
+      <c r="P19" s="61"/>
+      <c r="Q19" s="61"/>
+      <c r="R19" s="61"/>
+      <c r="S19" s="61"/>
+      <c r="T19" s="61"/>
+      <c r="U19" s="58"/>
     </row>
     <row r="20" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A20" s="1"/>
       <c r="B20" s="2"/>
-      <c r="C20" s="34"/>
-      <c r="D20" s="36" t="s">
+      <c r="C20" s="55"/>
+      <c r="D20" s="32" t="s">
         <v>7</v>
       </c>
-      <c r="E20" s="37"/>
-      <c r="F20" s="37"/>
-      <c r="G20" s="37"/>
-      <c r="H20" s="37"/>
-      <c r="I20" s="38"/>
-      <c r="J20" s="42"/>
-      <c r="K20" s="43"/>
-      <c r="L20" s="44"/>
-      <c r="M20" s="44"/>
-      <c r="N20" s="44"/>
-      <c r="O20" s="44"/>
-      <c r="P20" s="44"/>
-      <c r="Q20" s="44"/>
-      <c r="R20" s="44"/>
-      <c r="S20" s="44"/>
-      <c r="T20" s="45"/>
-      <c r="U20" s="49"/>
+      <c r="E20" s="33"/>
+      <c r="F20" s="33"/>
+      <c r="G20" s="33"/>
+      <c r="H20" s="33"/>
+      <c r="I20" s="34"/>
+      <c r="J20" s="57"/>
+      <c r="K20" s="38"/>
+      <c r="L20" s="39"/>
+      <c r="M20" s="39"/>
+      <c r="N20" s="39"/>
+      <c r="O20" s="39"/>
+      <c r="P20" s="39"/>
+      <c r="Q20" s="39"/>
+      <c r="R20" s="39"/>
+      <c r="S20" s="39"/>
+      <c r="T20" s="40"/>
+      <c r="U20" s="58"/>
     </row>
     <row r="21" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A21" s="1"/>
       <c r="B21" s="2"/>
-      <c r="C21" s="34"/>
-      <c r="D21" s="39"/>
-      <c r="E21" s="40"/>
-      <c r="F21" s="40"/>
-      <c r="G21" s="40"/>
-      <c r="H21" s="40"/>
-      <c r="I21" s="41"/>
-      <c r="J21" s="42"/>
-      <c r="K21" s="46"/>
-      <c r="L21" s="47"/>
-      <c r="M21" s="47"/>
-      <c r="N21" s="47"/>
-      <c r="O21" s="47"/>
-      <c r="P21" s="47"/>
-      <c r="Q21" s="47"/>
-      <c r="R21" s="47"/>
-      <c r="S21" s="47"/>
-      <c r="T21" s="48"/>
-      <c r="U21" s="49"/>
+      <c r="C21" s="55"/>
+      <c r="D21" s="35"/>
+      <c r="E21" s="36"/>
+      <c r="F21" s="36"/>
+      <c r="G21" s="36"/>
+      <c r="H21" s="36"/>
+      <c r="I21" s="37"/>
+      <c r="J21" s="57"/>
+      <c r="K21" s="41"/>
+      <c r="L21" s="42"/>
+      <c r="M21" s="42"/>
+      <c r="N21" s="42"/>
+      <c r="O21" s="42"/>
+      <c r="P21" s="42"/>
+      <c r="Q21" s="42"/>
+      <c r="R21" s="42"/>
+      <c r="S21" s="42"/>
+      <c r="T21" s="43"/>
+      <c r="U21" s="58"/>
     </row>
     <row r="22" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A22" s="1"/>
       <c r="B22" s="3"/>
-      <c r="C22" s="34"/>
-      <c r="D22" s="54"/>
-      <c r="E22" s="54"/>
-      <c r="F22" s="54"/>
-      <c r="G22" s="54"/>
-      <c r="H22" s="54"/>
-      <c r="I22" s="54"/>
-      <c r="J22" s="42"/>
-      <c r="K22" s="52"/>
-      <c r="L22" s="52"/>
-      <c r="M22" s="52"/>
-      <c r="N22" s="52"/>
-      <c r="O22" s="52"/>
-      <c r="P22" s="52"/>
-      <c r="Q22" s="52"/>
-      <c r="R22" s="52"/>
-      <c r="S22" s="52"/>
-      <c r="T22" s="52"/>
-      <c r="U22" s="49"/>
+      <c r="C22" s="55"/>
+      <c r="D22" s="46"/>
+      <c r="E22" s="46"/>
+      <c r="F22" s="46"/>
+      <c r="G22" s="46"/>
+      <c r="H22" s="46"/>
+      <c r="I22" s="46"/>
+      <c r="J22" s="57"/>
+      <c r="K22" s="47"/>
+      <c r="L22" s="47"/>
+      <c r="M22" s="47"/>
+      <c r="N22" s="47"/>
+      <c r="O22" s="47"/>
+      <c r="P22" s="47"/>
+      <c r="Q22" s="47"/>
+      <c r="R22" s="47"/>
+      <c r="S22" s="47"/>
+      <c r="T22" s="47"/>
+      <c r="U22" s="58"/>
     </row>
     <row r="23" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A23" s="1"/>
-      <c r="B23" s="55"/>
-      <c r="C23" s="34"/>
-      <c r="D23" s="36" t="s">
+      <c r="B23" s="48"/>
+      <c r="C23" s="55"/>
+      <c r="D23" s="32" t="s">
         <v>8</v>
       </c>
-      <c r="E23" s="37"/>
-      <c r="F23" s="37"/>
-      <c r="G23" s="37"/>
-      <c r="H23" s="37"/>
-      <c r="I23" s="38"/>
-      <c r="J23" s="42"/>
-      <c r="K23" s="43"/>
-      <c r="L23" s="44"/>
-      <c r="M23" s="44"/>
-      <c r="N23" s="44"/>
-      <c r="O23" s="44"/>
-      <c r="P23" s="44"/>
-      <c r="Q23" s="44"/>
-      <c r="R23" s="44"/>
-      <c r="S23" s="44"/>
-      <c r="T23" s="45"/>
-      <c r="U23" s="49"/>
+      <c r="E23" s="33"/>
+      <c r="F23" s="33"/>
+      <c r="G23" s="33"/>
+      <c r="H23" s="33"/>
+      <c r="I23" s="34"/>
+      <c r="J23" s="57"/>
+      <c r="K23" s="38"/>
+      <c r="L23" s="39"/>
+      <c r="M23" s="39"/>
+      <c r="N23" s="39"/>
+      <c r="O23" s="39"/>
+      <c r="P23" s="39"/>
+      <c r="Q23" s="39"/>
+      <c r="R23" s="39"/>
+      <c r="S23" s="39"/>
+      <c r="T23" s="40"/>
+      <c r="U23" s="58"/>
     </row>
     <row r="24" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A24" s="1"/>
-      <c r="B24" s="55"/>
-      <c r="C24" s="34"/>
-      <c r="D24" s="39"/>
-      <c r="E24" s="40"/>
-      <c r="F24" s="40"/>
-      <c r="G24" s="40"/>
-      <c r="H24" s="40"/>
-      <c r="I24" s="41"/>
-      <c r="J24" s="42"/>
-      <c r="K24" s="46"/>
-      <c r="L24" s="47"/>
-      <c r="M24" s="47"/>
-      <c r="N24" s="47"/>
-      <c r="O24" s="47"/>
-      <c r="P24" s="47"/>
-      <c r="Q24" s="47"/>
-      <c r="R24" s="47"/>
-      <c r="S24" s="47"/>
-      <c r="T24" s="48"/>
-      <c r="U24" s="49"/>
+      <c r="B24" s="48"/>
+      <c r="C24" s="55"/>
+      <c r="D24" s="35"/>
+      <c r="E24" s="36"/>
+      <c r="F24" s="36"/>
+      <c r="G24" s="36"/>
+      <c r="H24" s="36"/>
+      <c r="I24" s="37"/>
+      <c r="J24" s="57"/>
+      <c r="K24" s="41"/>
+      <c r="L24" s="42"/>
+      <c r="M24" s="42"/>
+      <c r="N24" s="42"/>
+      <c r="O24" s="42"/>
+      <c r="P24" s="42"/>
+      <c r="Q24" s="42"/>
+      <c r="R24" s="42"/>
+      <c r="S24" s="42"/>
+      <c r="T24" s="43"/>
+      <c r="U24" s="58"/>
     </row>
     <row r="25" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A25" s="1"/>
-      <c r="B25" s="55"/>
-      <c r="C25" s="34"/>
-      <c r="D25" s="56"/>
-      <c r="E25" s="56"/>
-      <c r="F25" s="56"/>
-      <c r="G25" s="56"/>
-      <c r="H25" s="56"/>
-      <c r="I25" s="56"/>
-      <c r="J25" s="42"/>
-      <c r="K25" s="57"/>
-      <c r="L25" s="57"/>
-      <c r="M25" s="57"/>
-      <c r="N25" s="57"/>
-      <c r="O25" s="57"/>
-      <c r="P25" s="57"/>
-      <c r="Q25" s="57"/>
-      <c r="R25" s="57"/>
-      <c r="S25" s="57"/>
-      <c r="T25" s="57"/>
-      <c r="U25" s="49"/>
+      <c r="B25" s="48"/>
+      <c r="C25" s="55"/>
+      <c r="D25" s="44"/>
+      <c r="E25" s="44"/>
+      <c r="F25" s="44"/>
+      <c r="G25" s="44"/>
+      <c r="H25" s="44"/>
+      <c r="I25" s="44"/>
+      <c r="J25" s="57"/>
+      <c r="K25" s="49"/>
+      <c r="L25" s="49"/>
+      <c r="M25" s="49"/>
+      <c r="N25" s="49"/>
+      <c r="O25" s="49"/>
+      <c r="P25" s="49"/>
+      <c r="Q25" s="49"/>
+      <c r="R25" s="49"/>
+      <c r="S25" s="49"/>
+      <c r="T25" s="49"/>
+      <c r="U25" s="58"/>
     </row>
     <row r="26" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A26" s="1"/>
       <c r="B26" s="4"/>
-      <c r="C26" s="34"/>
-      <c r="D26" s="36" t="s">
+      <c r="C26" s="55"/>
+      <c r="D26" s="32" t="s">
         <v>9</v>
       </c>
-      <c r="E26" s="37"/>
-      <c r="F26" s="37"/>
-      <c r="G26" s="37"/>
-      <c r="H26" s="37"/>
-      <c r="I26" s="38"/>
-      <c r="J26" s="42"/>
-      <c r="K26" s="43"/>
-      <c r="L26" s="44"/>
-      <c r="M26" s="44"/>
-      <c r="N26" s="44"/>
-      <c r="O26" s="44"/>
-      <c r="P26" s="44"/>
-      <c r="Q26" s="44"/>
-      <c r="R26" s="44"/>
-      <c r="S26" s="44"/>
-      <c r="T26" s="45"/>
-      <c r="U26" s="49"/>
+      <c r="E26" s="33"/>
+      <c r="F26" s="33"/>
+      <c r="G26" s="33"/>
+      <c r="H26" s="33"/>
+      <c r="I26" s="34"/>
+      <c r="J26" s="57"/>
+      <c r="K26" s="38"/>
+      <c r="L26" s="39"/>
+      <c r="M26" s="39"/>
+      <c r="N26" s="39"/>
+      <c r="O26" s="39"/>
+      <c r="P26" s="39"/>
+      <c r="Q26" s="39"/>
+      <c r="R26" s="39"/>
+      <c r="S26" s="39"/>
+      <c r="T26" s="40"/>
+      <c r="U26" s="58"/>
     </row>
     <row r="27" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A27" s="1"/>
       <c r="B27" s="4"/>
-      <c r="C27" s="34"/>
-      <c r="D27" s="39"/>
-      <c r="E27" s="40"/>
-      <c r="F27" s="40"/>
-      <c r="G27" s="40"/>
-      <c r="H27" s="40"/>
-      <c r="I27" s="41"/>
-      <c r="J27" s="42"/>
-      <c r="K27" s="46"/>
-      <c r="L27" s="47"/>
-      <c r="M27" s="47"/>
-      <c r="N27" s="47"/>
-      <c r="O27" s="47"/>
-      <c r="P27" s="47"/>
-      <c r="Q27" s="47"/>
-      <c r="R27" s="47"/>
-      <c r="S27" s="47"/>
-      <c r="T27" s="48"/>
-      <c r="U27" s="49"/>
+      <c r="C27" s="55"/>
+      <c r="D27" s="35"/>
+      <c r="E27" s="36"/>
+      <c r="F27" s="36"/>
+      <c r="G27" s="36"/>
+      <c r="H27" s="36"/>
+      <c r="I27" s="37"/>
+      <c r="J27" s="57"/>
+      <c r="K27" s="41"/>
+      <c r="L27" s="42"/>
+      <c r="M27" s="42"/>
+      <c r="N27" s="42"/>
+      <c r="O27" s="42"/>
+      <c r="P27" s="42"/>
+      <c r="Q27" s="42"/>
+      <c r="R27" s="42"/>
+      <c r="S27" s="42"/>
+      <c r="T27" s="43"/>
+      <c r="U27" s="58"/>
     </row>
     <row r="28" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A28" s="1"/>
       <c r="B28" s="4"/>
-      <c r="C28" s="34"/>
-      <c r="D28" s="56"/>
-      <c r="E28" s="56"/>
-      <c r="F28" s="56"/>
-      <c r="G28" s="56"/>
-      <c r="H28" s="56"/>
-      <c r="I28" s="56"/>
-      <c r="J28" s="42"/>
-      <c r="K28" s="58"/>
-      <c r="L28" s="58"/>
-      <c r="M28" s="58"/>
-      <c r="N28" s="58"/>
-      <c r="O28" s="58"/>
-      <c r="P28" s="58"/>
-      <c r="Q28" s="58"/>
-      <c r="R28" s="58"/>
-      <c r="S28" s="58"/>
-      <c r="T28" s="58"/>
-      <c r="U28" s="49"/>
+      <c r="C28" s="55"/>
+      <c r="D28" s="44"/>
+      <c r="E28" s="44"/>
+      <c r="F28" s="44"/>
+      <c r="G28" s="44"/>
+      <c r="H28" s="44"/>
+      <c r="I28" s="44"/>
+      <c r="J28" s="57"/>
+      <c r="K28" s="45"/>
+      <c r="L28" s="45"/>
+      <c r="M28" s="45"/>
+      <c r="N28" s="45"/>
+      <c r="O28" s="45"/>
+      <c r="P28" s="45"/>
+      <c r="Q28" s="45"/>
+      <c r="R28" s="45"/>
+      <c r="S28" s="45"/>
+      <c r="T28" s="45"/>
+      <c r="U28" s="58"/>
     </row>
     <row r="29" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A29" s="1"/>
       <c r="B29" s="4"/>
-      <c r="C29" s="34"/>
-      <c r="D29" s="36" t="s">
+      <c r="C29" s="55"/>
+      <c r="D29" s="32" t="s">
         <v>10</v>
       </c>
-      <c r="E29" s="37"/>
-      <c r="F29" s="37"/>
-      <c r="G29" s="37"/>
-      <c r="H29" s="37"/>
-      <c r="I29" s="38"/>
-      <c r="J29" s="42"/>
-      <c r="K29" s="43"/>
-      <c r="L29" s="44"/>
-      <c r="M29" s="44"/>
-      <c r="N29" s="44"/>
-      <c r="O29" s="44"/>
-      <c r="P29" s="44"/>
-      <c r="Q29" s="44"/>
-      <c r="R29" s="44"/>
-      <c r="S29" s="44"/>
-      <c r="T29" s="45"/>
-      <c r="U29" s="49"/>
+      <c r="E29" s="33"/>
+      <c r="F29" s="33"/>
+      <c r="G29" s="33"/>
+      <c r="H29" s="33"/>
+      <c r="I29" s="34"/>
+      <c r="J29" s="57"/>
+      <c r="K29" s="38"/>
+      <c r="L29" s="39"/>
+      <c r="M29" s="39"/>
+      <c r="N29" s="39"/>
+      <c r="O29" s="39"/>
+      <c r="P29" s="39"/>
+      <c r="Q29" s="39"/>
+      <c r="R29" s="39"/>
+      <c r="S29" s="39"/>
+      <c r="T29" s="40"/>
+      <c r="U29" s="58"/>
     </row>
     <row r="30" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A30" s="1"/>
       <c r="B30" s="4"/>
-      <c r="C30" s="34"/>
-      <c r="D30" s="39"/>
-      <c r="E30" s="40"/>
-      <c r="F30" s="40"/>
-      <c r="G30" s="40"/>
-      <c r="H30" s="40"/>
-      <c r="I30" s="41"/>
-      <c r="J30" s="42"/>
-      <c r="K30" s="46"/>
-      <c r="L30" s="47"/>
-      <c r="M30" s="47"/>
-      <c r="N30" s="47"/>
-      <c r="O30" s="47"/>
-      <c r="P30" s="47"/>
-      <c r="Q30" s="47"/>
-      <c r="R30" s="47"/>
-      <c r="S30" s="47"/>
-      <c r="T30" s="48"/>
-      <c r="U30" s="49"/>
+      <c r="C30" s="55"/>
+      <c r="D30" s="35"/>
+      <c r="E30" s="36"/>
+      <c r="F30" s="36"/>
+      <c r="G30" s="36"/>
+      <c r="H30" s="36"/>
+      <c r="I30" s="37"/>
+      <c r="J30" s="57"/>
+      <c r="K30" s="41"/>
+      <c r="L30" s="42"/>
+      <c r="M30" s="42"/>
+      <c r="N30" s="42"/>
+      <c r="O30" s="42"/>
+      <c r="P30" s="42"/>
+      <c r="Q30" s="42"/>
+      <c r="R30" s="42"/>
+      <c r="S30" s="42"/>
+      <c r="T30" s="43"/>
+      <c r="U30" s="58"/>
     </row>
     <row r="31" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A31" s="1"/>
       <c r="B31" s="4"/>
-      <c r="C31" s="34"/>
-      <c r="D31" s="60"/>
-      <c r="E31" s="60"/>
-      <c r="F31" s="60"/>
-      <c r="G31" s="60"/>
-      <c r="H31" s="60"/>
-      <c r="I31" s="60"/>
-      <c r="J31" s="60"/>
-      <c r="K31" s="60"/>
-      <c r="L31" s="60"/>
-      <c r="M31" s="60"/>
-      <c r="N31" s="60"/>
-      <c r="O31" s="60"/>
-      <c r="P31" s="60"/>
-      <c r="Q31" s="60"/>
-      <c r="R31" s="60"/>
-      <c r="S31" s="60"/>
-      <c r="T31" s="60"/>
-      <c r="U31" s="49"/>
+      <c r="C31" s="55"/>
+      <c r="D31" s="17"/>
+      <c r="E31" s="17"/>
+      <c r="F31" s="17"/>
+      <c r="G31" s="17"/>
+      <c r="H31" s="17"/>
+      <c r="I31" s="17"/>
+      <c r="J31" s="17"/>
+      <c r="K31" s="17"/>
+      <c r="L31" s="17"/>
+      <c r="M31" s="17"/>
+      <c r="N31" s="17"/>
+      <c r="O31" s="17"/>
+      <c r="P31" s="17"/>
+      <c r="Q31" s="17"/>
+      <c r="R31" s="17"/>
+      <c r="S31" s="17"/>
+      <c r="T31" s="17"/>
+      <c r="U31" s="58"/>
     </row>
     <row r="32" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="1"/>
       <c r="B32" s="4"/>
-      <c r="C32" s="34"/>
-      <c r="D32" s="61" t="s">
+      <c r="C32" s="55"/>
+      <c r="D32" s="18" t="s">
         <v>11</v>
       </c>
-      <c r="E32" s="61"/>
-      <c r="F32" s="61"/>
-      <c r="G32" s="62"/>
-      <c r="H32" s="63" t="s">
+      <c r="E32" s="18"/>
+      <c r="F32" s="18"/>
+      <c r="G32" s="19"/>
+      <c r="H32" s="20" t="s">
         <v>3</v>
       </c>
-      <c r="I32" s="64"/>
-      <c r="J32" s="67" t="s">
+      <c r="I32" s="21"/>
+      <c r="J32" s="24" t="s">
         <v>12</v>
       </c>
-      <c r="K32" s="68"/>
-      <c r="L32" s="63" t="s">
+      <c r="K32" s="25"/>
+      <c r="L32" s="20" t="s">
         <v>13</v>
       </c>
-      <c r="M32" s="64"/>
-      <c r="N32" s="67" t="s">
+      <c r="M32" s="21"/>
+      <c r="N32" s="24" t="s">
         <v>14</v>
       </c>
-      <c r="O32" s="61"/>
-      <c r="P32" s="61"/>
-      <c r="Q32" s="61"/>
-      <c r="R32" s="68"/>
-      <c r="S32" s="63" t="str">
+      <c r="O32" s="18"/>
+      <c r="P32" s="18"/>
+      <c r="Q32" s="18"/>
+      <c r="R32" s="25"/>
+      <c r="S32" s="20" t="str">
         <f>IF(H32="/",L32,H32*L32)</f>
         <v>1</v>
       </c>
-      <c r="T32" s="64"/>
-      <c r="U32" s="49"/>
+      <c r="T32" s="21"/>
+      <c r="U32" s="58"/>
     </row>
     <row r="33" spans="1:21" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A33" s="1"/>
       <c r="B33" s="4"/>
-      <c r="C33" s="34"/>
-      <c r="D33" s="61"/>
-      <c r="E33" s="61"/>
-      <c r="F33" s="61"/>
-      <c r="G33" s="62"/>
-      <c r="H33" s="65"/>
-      <c r="I33" s="66"/>
-      <c r="J33" s="67"/>
-      <c r="K33" s="68"/>
-      <c r="L33" s="65"/>
-      <c r="M33" s="66"/>
-      <c r="N33" s="67"/>
-      <c r="O33" s="61"/>
-      <c r="P33" s="61"/>
-      <c r="Q33" s="61"/>
-      <c r="R33" s="68"/>
-      <c r="S33" s="65"/>
-      <c r="T33" s="66"/>
-      <c r="U33" s="49"/>
+      <c r="C33" s="55"/>
+      <c r="D33" s="18"/>
+      <c r="E33" s="18"/>
+      <c r="F33" s="18"/>
+      <c r="G33" s="19"/>
+      <c r="H33" s="22"/>
+      <c r="I33" s="23"/>
+      <c r="J33" s="24"/>
+      <c r="K33" s="25"/>
+      <c r="L33" s="22"/>
+      <c r="M33" s="23"/>
+      <c r="N33" s="24"/>
+      <c r="O33" s="18"/>
+      <c r="P33" s="18"/>
+      <c r="Q33" s="18"/>
+      <c r="R33" s="25"/>
+      <c r="S33" s="22"/>
+      <c r="T33" s="23"/>
+      <c r="U33" s="58"/>
     </row>
     <row r="34" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A34" s="1"/>
       <c r="B34" s="4"/>
-      <c r="C34" s="34"/>
-      <c r="D34" s="69"/>
-      <c r="E34" s="69"/>
-      <c r="F34" s="69"/>
-      <c r="G34" s="69"/>
-      <c r="H34" s="69"/>
-      <c r="I34" s="69"/>
-      <c r="J34" s="69"/>
-      <c r="K34" s="69"/>
-      <c r="L34" s="69"/>
-      <c r="M34" s="69"/>
-      <c r="N34" s="69"/>
-      <c r="O34" s="69"/>
-      <c r="P34" s="69"/>
-      <c r="Q34" s="69"/>
-      <c r="R34" s="69"/>
-      <c r="S34" s="69"/>
-      <c r="T34" s="69"/>
-      <c r="U34" s="49"/>
+      <c r="C34" s="55"/>
+      <c r="D34" s="26"/>
+      <c r="E34" s="26"/>
+      <c r="F34" s="26"/>
+      <c r="G34" s="26"/>
+      <c r="H34" s="26"/>
+      <c r="I34" s="26"/>
+      <c r="J34" s="26"/>
+      <c r="K34" s="26"/>
+      <c r="L34" s="26"/>
+      <c r="M34" s="26"/>
+      <c r="N34" s="26"/>
+      <c r="O34" s="26"/>
+      <c r="P34" s="26"/>
+      <c r="Q34" s="26"/>
+      <c r="R34" s="26"/>
+      <c r="S34" s="26"/>
+      <c r="T34" s="26"/>
+      <c r="U34" s="58"/>
     </row>
     <row r="35" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A35" s="1"/>
       <c r="B35" s="4"/>
-      <c r="C35" s="35"/>
-      <c r="D35" s="70"/>
-      <c r="E35" s="70"/>
-      <c r="F35" s="70"/>
-      <c r="G35" s="70"/>
-      <c r="H35" s="70"/>
-      <c r="I35" s="70"/>
-      <c r="J35" s="70"/>
-      <c r="K35" s="70"/>
-      <c r="L35" s="70"/>
-      <c r="M35" s="70"/>
-      <c r="N35" s="70"/>
-      <c r="O35" s="70"/>
-      <c r="P35" s="70"/>
-      <c r="Q35" s="70"/>
-      <c r="R35" s="70"/>
-      <c r="S35" s="70"/>
-      <c r="T35" s="70"/>
-      <c r="U35" s="50"/>
+      <c r="C35" s="56"/>
+      <c r="D35" s="27"/>
+      <c r="E35" s="27"/>
+      <c r="F35" s="27"/>
+      <c r="G35" s="27"/>
+      <c r="H35" s="27"/>
+      <c r="I35" s="27"/>
+      <c r="J35" s="27"/>
+      <c r="K35" s="27"/>
+      <c r="L35" s="27"/>
+      <c r="M35" s="27"/>
+      <c r="N35" s="27"/>
+      <c r="O35" s="27"/>
+      <c r="P35" s="27"/>
+      <c r="Q35" s="27"/>
+      <c r="R35" s="27"/>
+      <c r="S35" s="27"/>
+      <c r="T35" s="27"/>
+      <c r="U35" s="59"/>
     </row>
     <row r="36" spans="1:21" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A36" s="1"/>
@@ -2856,121 +2849,121 @@
     <row r="57" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A57" s="1"/>
       <c r="B57" s="2"/>
-      <c r="C57" s="71" t="s">
+      <c r="C57" s="28" t="s">
         <v>15</v>
       </c>
-      <c r="D57" s="71"/>
-      <c r="E57" s="72" t="s">
+      <c r="D57" s="28"/>
+      <c r="E57" s="29" t="s">
         <v>16</v>
       </c>
-      <c r="F57" s="72"/>
-      <c r="G57" s="72"/>
-      <c r="H57" s="72"/>
-      <c r="I57" s="72"/>
-      <c r="J57" s="72"/>
-      <c r="K57" s="72"/>
-      <c r="L57" s="72"/>
-      <c r="M57" s="72"/>
-      <c r="N57" s="72"/>
-      <c r="O57" s="72"/>
-      <c r="P57" s="72"/>
-      <c r="Q57" s="72"/>
-      <c r="R57" s="72"/>
-      <c r="S57" s="72"/>
-      <c r="T57" s="72"/>
-      <c r="U57" s="72"/>
+      <c r="F57" s="29"/>
+      <c r="G57" s="29"/>
+      <c r="H57" s="29"/>
+      <c r="I57" s="29"/>
+      <c r="J57" s="29"/>
+      <c r="K57" s="29"/>
+      <c r="L57" s="29"/>
+      <c r="M57" s="29"/>
+      <c r="N57" s="29"/>
+      <c r="O57" s="29"/>
+      <c r="P57" s="29"/>
+      <c r="Q57" s="29"/>
+      <c r="R57" s="29"/>
+      <c r="S57" s="29"/>
+      <c r="T57" s="29"/>
+      <c r="U57" s="29"/>
     </row>
     <row r="58" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A58" s="1"/>
       <c r="B58" s="2"/>
-      <c r="C58" s="73"/>
-      <c r="D58" s="73"/>
-      <c r="E58" s="72"/>
-      <c r="F58" s="72"/>
-      <c r="G58" s="72"/>
-      <c r="H58" s="72"/>
-      <c r="I58" s="72"/>
-      <c r="J58" s="72"/>
-      <c r="K58" s="72"/>
-      <c r="L58" s="72"/>
-      <c r="M58" s="72"/>
-      <c r="N58" s="72"/>
-      <c r="O58" s="72"/>
-      <c r="P58" s="72"/>
-      <c r="Q58" s="72"/>
-      <c r="R58" s="72"/>
-      <c r="S58" s="72"/>
-      <c r="T58" s="72"/>
-      <c r="U58" s="72"/>
+      <c r="C58" s="30"/>
+      <c r="D58" s="30"/>
+      <c r="E58" s="29"/>
+      <c r="F58" s="29"/>
+      <c r="G58" s="29"/>
+      <c r="H58" s="29"/>
+      <c r="I58" s="29"/>
+      <c r="J58" s="29"/>
+      <c r="K58" s="29"/>
+      <c r="L58" s="29"/>
+      <c r="M58" s="29"/>
+      <c r="N58" s="29"/>
+      <c r="O58" s="29"/>
+      <c r="P58" s="29"/>
+      <c r="Q58" s="29"/>
+      <c r="R58" s="29"/>
+      <c r="S58" s="29"/>
+      <c r="T58" s="29"/>
+      <c r="U58" s="29"/>
     </row>
     <row r="59" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A59" s="1"/>
       <c r="B59" s="2"/>
-      <c r="C59" s="73"/>
-      <c r="D59" s="73"/>
-      <c r="E59" s="72"/>
-      <c r="F59" s="72"/>
-      <c r="G59" s="72"/>
-      <c r="H59" s="72"/>
-      <c r="I59" s="72"/>
-      <c r="J59" s="72"/>
-      <c r="K59" s="72"/>
-      <c r="L59" s="72"/>
-      <c r="M59" s="72"/>
-      <c r="N59" s="72"/>
-      <c r="O59" s="72"/>
-      <c r="P59" s="72"/>
-      <c r="Q59" s="72"/>
-      <c r="R59" s="72"/>
-      <c r="S59" s="72"/>
-      <c r="T59" s="72"/>
-      <c r="U59" s="72"/>
+      <c r="C59" s="30"/>
+      <c r="D59" s="30"/>
+      <c r="E59" s="29"/>
+      <c r="F59" s="29"/>
+      <c r="G59" s="29"/>
+      <c r="H59" s="29"/>
+      <c r="I59" s="29"/>
+      <c r="J59" s="29"/>
+      <c r="K59" s="29"/>
+      <c r="L59" s="29"/>
+      <c r="M59" s="29"/>
+      <c r="N59" s="29"/>
+      <c r="O59" s="29"/>
+      <c r="P59" s="29"/>
+      <c r="Q59" s="29"/>
+      <c r="R59" s="29"/>
+      <c r="S59" s="29"/>
+      <c r="T59" s="29"/>
+      <c r="U59" s="29"/>
     </row>
     <row r="60" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A60" s="1"/>
       <c r="B60" s="2"/>
-      <c r="C60" s="74"/>
-      <c r="D60" s="74"/>
-      <c r="E60" s="74"/>
-      <c r="F60" s="74"/>
-      <c r="G60" s="74"/>
-      <c r="H60" s="74"/>
-      <c r="I60" s="74"/>
-      <c r="J60" s="74"/>
-      <c r="K60" s="74"/>
-      <c r="L60" s="74"/>
-      <c r="M60" s="74"/>
-      <c r="N60" s="74"/>
-      <c r="O60" s="74"/>
-      <c r="P60" s="74"/>
-      <c r="Q60" s="74"/>
-      <c r="R60" s="74"/>
-      <c r="S60" s="74"/>
-      <c r="T60" s="74"/>
-      <c r="U60" s="74"/>
+      <c r="C60" s="31"/>
+      <c r="D60" s="31"/>
+      <c r="E60" s="31"/>
+      <c r="F60" s="31"/>
+      <c r="G60" s="31"/>
+      <c r="H60" s="31"/>
+      <c r="I60" s="31"/>
+      <c r="J60" s="31"/>
+      <c r="K60" s="31"/>
+      <c r="L60" s="31"/>
+      <c r="M60" s="31"/>
+      <c r="N60" s="31"/>
+      <c r="O60" s="31"/>
+      <c r="P60" s="31"/>
+      <c r="Q60" s="31"/>
+      <c r="R60" s="31"/>
+      <c r="S60" s="31"/>
+      <c r="T60" s="31"/>
+      <c r="U60" s="31"/>
     </row>
     <row r="61" spans="1:21" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A61" s="1"/>
       <c r="B61" s="2"/>
-      <c r="C61" s="59"/>
-      <c r="D61" s="59"/>
-      <c r="E61" s="59"/>
-      <c r="F61" s="59"/>
-      <c r="G61" s="59"/>
-      <c r="H61" s="59"/>
-      <c r="I61" s="59"/>
-      <c r="J61" s="59"/>
-      <c r="K61" s="59"/>
-      <c r="L61" s="59"/>
-      <c r="M61" s="59"/>
-      <c r="N61" s="59"/>
-      <c r="O61" s="59"/>
-      <c r="P61" s="59"/>
-      <c r="Q61" s="59"/>
-      <c r="R61" s="59"/>
-      <c r="S61" s="59"/>
-      <c r="T61" s="59"/>
-      <c r="U61" s="59"/>
+      <c r="C61" s="16"/>
+      <c r="D61" s="16"/>
+      <c r="E61" s="16"/>
+      <c r="F61" s="16"/>
+      <c r="G61" s="16"/>
+      <c r="H61" s="16"/>
+      <c r="I61" s="16"/>
+      <c r="J61" s="16"/>
+      <c r="K61" s="16"/>
+      <c r="L61" s="16"/>
+      <c r="M61" s="16"/>
+      <c r="N61" s="16"/>
+      <c r="O61" s="16"/>
+      <c r="P61" s="16"/>
+      <c r="Q61" s="16"/>
+      <c r="R61" s="16"/>
+      <c r="S61" s="16"/>
+      <c r="T61" s="16"/>
+      <c r="U61" s="16"/>
     </row>
     <row r="62" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A62" s="1"/>
@@ -2981,27 +2974,22 @@
       <c r="D62" s="13"/>
       <c r="E62" s="13"/>
       <c r="F62" s="11"/>
-      <c r="G62" s="75">
-        <f ca="1">TODAY()</f>
-        <v>43385</v>
-      </c>
-      <c r="H62" s="75"/>
-      <c r="I62" s="75"/>
+      <c r="G62" s="14"/>
+      <c r="H62" s="14"/>
+      <c r="I62" s="14"/>
       <c r="J62" s="13"/>
       <c r="K62" s="13"/>
       <c r="L62" s="13" t="s">
         <v>18</v>
       </c>
       <c r="M62" s="13"/>
-      <c r="N62" s="76" t="s">
-        <v>19</v>
-      </c>
-      <c r="O62" s="76"/>
-      <c r="P62" s="76"/>
-      <c r="Q62" s="76"/>
-      <c r="R62" s="76"/>
-      <c r="S62" s="76"/>
-      <c r="T62" s="76"/>
+      <c r="N62" s="15"/>
+      <c r="O62" s="15"/>
+      <c r="P62" s="15"/>
+      <c r="Q62" s="15"/>
+      <c r="R62" s="15"/>
+      <c r="S62" s="15"/>
+      <c r="T62" s="15"/>
       <c r="U62" s="12"/>
     </row>
     <row r="63" spans="1:21" x14ac:dyDescent="0.25">
@@ -3029,37 +3017,12 @@
     </row>
   </sheetData>
   <mergeCells count="53">
-    <mergeCell ref="C62:E62"/>
-    <mergeCell ref="G62:I62"/>
-    <mergeCell ref="J62:K62"/>
-    <mergeCell ref="L62:M62"/>
-    <mergeCell ref="N62:T62"/>
-    <mergeCell ref="C61:U61"/>
-    <mergeCell ref="D31:T31"/>
-    <mergeCell ref="D32:G33"/>
-    <mergeCell ref="H32:I33"/>
-    <mergeCell ref="J32:K33"/>
-    <mergeCell ref="L32:M33"/>
-    <mergeCell ref="N32:R33"/>
-    <mergeCell ref="S32:T33"/>
-    <mergeCell ref="D34:T35"/>
-    <mergeCell ref="C57:D57"/>
-    <mergeCell ref="E57:U59"/>
-    <mergeCell ref="C58:D59"/>
-    <mergeCell ref="C60:U60"/>
-    <mergeCell ref="D26:I27"/>
-    <mergeCell ref="K26:T27"/>
-    <mergeCell ref="D28:I28"/>
-    <mergeCell ref="K28:T28"/>
-    <mergeCell ref="D29:I30"/>
-    <mergeCell ref="K29:T30"/>
-    <mergeCell ref="D22:I22"/>
-    <mergeCell ref="K22:T22"/>
-    <mergeCell ref="B23:B25"/>
-    <mergeCell ref="D23:I24"/>
-    <mergeCell ref="K23:T24"/>
-    <mergeCell ref="D25:I25"/>
-    <mergeCell ref="K25:T25"/>
+    <mergeCell ref="C1:U6"/>
+    <mergeCell ref="C7:E8"/>
+    <mergeCell ref="F7:L8"/>
+    <mergeCell ref="M7:P8"/>
+    <mergeCell ref="Q7:R8"/>
+    <mergeCell ref="S7:U8"/>
     <mergeCell ref="C9:U9"/>
     <mergeCell ref="C10:U11"/>
     <mergeCell ref="C12:U13"/>
@@ -3076,12 +3039,37 @@
     <mergeCell ref="K19:T19"/>
     <mergeCell ref="D20:I21"/>
     <mergeCell ref="K20:T21"/>
-    <mergeCell ref="C1:U6"/>
-    <mergeCell ref="C7:E8"/>
-    <mergeCell ref="F7:L8"/>
-    <mergeCell ref="M7:P8"/>
-    <mergeCell ref="Q7:R8"/>
-    <mergeCell ref="S7:U8"/>
+    <mergeCell ref="D22:I22"/>
+    <mergeCell ref="K22:T22"/>
+    <mergeCell ref="B23:B25"/>
+    <mergeCell ref="D23:I24"/>
+    <mergeCell ref="K23:T24"/>
+    <mergeCell ref="D25:I25"/>
+    <mergeCell ref="K25:T25"/>
+    <mergeCell ref="D26:I27"/>
+    <mergeCell ref="K26:T27"/>
+    <mergeCell ref="D28:I28"/>
+    <mergeCell ref="K28:T28"/>
+    <mergeCell ref="D29:I30"/>
+    <mergeCell ref="K29:T30"/>
+    <mergeCell ref="C61:U61"/>
+    <mergeCell ref="D31:T31"/>
+    <mergeCell ref="D32:G33"/>
+    <mergeCell ref="H32:I33"/>
+    <mergeCell ref="J32:K33"/>
+    <mergeCell ref="L32:M33"/>
+    <mergeCell ref="N32:R33"/>
+    <mergeCell ref="S32:T33"/>
+    <mergeCell ref="D34:T35"/>
+    <mergeCell ref="C57:D57"/>
+    <mergeCell ref="E57:U59"/>
+    <mergeCell ref="C58:D59"/>
+    <mergeCell ref="C60:U60"/>
+    <mergeCell ref="C62:E62"/>
+    <mergeCell ref="G62:I62"/>
+    <mergeCell ref="J62:K62"/>
+    <mergeCell ref="L62:M62"/>
+    <mergeCell ref="N62:T62"/>
   </mergeCells>
   <conditionalFormatting sqref="K28">
     <cfRule type="expression" priority="1" stopIfTrue="1">
